--- a/examples/1928+738/2024-12-13/Pol_LL/21.8/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/21.8/model_params.xlsx
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4917207258303629</v>
+        <v>0.4566506813615447</v>
       </c>
       <c r="C2">
-        <v>4.019424865110934</v>
+        <v>3.982377340632507</v>
       </c>
       <c r="D2">
-        <v>0.4588108512939302</v>
+        <v>0.4903475402456694</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2413610323941295</v>
+        <v>0.2274265943356579</v>
       </c>
       <c r="C3">
-        <v>3.942032713212433</v>
+        <v>3.947767345463777</v>
       </c>
       <c r="D3">
-        <v>0.2214964863418447</v>
+        <v>0.2252124931187058</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1583531280981864</v>
+        <v>0.1589477475646738</v>
       </c>
       <c r="C4">
-        <v>0.1702676655337507</v>
+        <v>0.1709876951309063</v>
       </c>
       <c r="D4">
-        <v>0.1245770221539053</v>
+        <v>0.1214634192008588</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2170739494814058</v>
+        <v>0.221007828581084</v>
       </c>
       <c r="C5">
-        <v>0.7051646831931151</v>
+        <v>0.6994039934290611</v>
       </c>
       <c r="D5">
-        <v>0.2390548356341724</v>
+        <v>0.2265998507213675</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -593,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3465168806300059</v>
+        <v>0.3469016085425768</v>
       </c>
       <c r="C6">
-        <v>0.3753429635510405</v>
+        <v>0.3733694545691422</v>
       </c>
       <c r="D6">
-        <v>0.2702821706447274</v>
+        <v>0.2627681342669334</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -610,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05484088830898748</v>
+        <v>0.05334375987742229</v>
       </c>
       <c r="C7">
-        <v>0.4134325534558733</v>
+        <v>0.4150425770344465</v>
       </c>
       <c r="D7">
-        <v>0.08583592606890234</v>
+        <v>0.08919969623169682</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -627,13 +627,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2267064821255638</v>
+        <v>0.2350129593154431</v>
       </c>
       <c r="C8">
-        <v>-1.038944316360512</v>
+        <v>-1.044246612245011</v>
       </c>
       <c r="D8">
-        <v>0.1423589381516248</v>
+        <v>0.1367399717657526</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -644,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00459392866089435</v>
+        <v>0.0043449757163153</v>
       </c>
       <c r="C9">
-        <v>0.1057836651549602</v>
+        <v>0.1057329132803245</v>
       </c>
       <c r="D9">
-        <v>0.004182918315735765</v>
+        <v>0.004071295486371293</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2343518192976693</v>
+        <v>0.2331434840997483</v>
       </c>
       <c r="C10">
-        <v>0.2462199456691311</v>
+        <v>0.2431394906804334</v>
       </c>
       <c r="D10">
-        <v>0.5655211882999607</v>
+        <v>0.5354127336271339</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -678,13 +678,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04509115370378058</v>
+        <v>0.0448799496999257</v>
       </c>
       <c r="C11">
-        <v>2.038610912830741</v>
+        <v>2.038773312192361</v>
       </c>
       <c r="D11">
-        <v>0.04756114085182617</v>
+        <v>0.04785752562422729</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -695,13 +695,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1502341821378517</v>
+        <v>0.1450922582950467</v>
       </c>
       <c r="C12">
-        <v>-6.280796127138363</v>
+        <v>-6.283340388000336</v>
       </c>
       <c r="D12">
-        <v>0.1271227196690319</v>
+        <v>0.1263434798122596</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -712,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.005879794106279097</v>
+        <v>0.005968626118379585</v>
       </c>
       <c r="C13">
-        <v>0.02270186674921452</v>
+        <v>0.02263523228550772</v>
       </c>
       <c r="D13">
-        <v>0.007558228496537801</v>
+        <v>0.007322660495810353</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -729,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.572093558066209</v>
+        <v>1.632982118044443</v>
       </c>
       <c r="C14">
-        <v>2.900920778542218</v>
+        <v>2.888405150504169</v>
       </c>
       <c r="D14">
-        <v>1.161677184726044</v>
+        <v>1.11418428731849</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -746,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3165752345646912</v>
+        <v>0.3123722282904628</v>
       </c>
       <c r="C15">
-        <v>1.106770365687342</v>
+        <v>1.097606850462745</v>
       </c>
       <c r="D15">
-        <v>0.2643265981261216</v>
+        <v>0.2678254420076573</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -763,13 +763,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7780000201171209</v>
+        <v>0.7378375126453065</v>
       </c>
       <c r="C16">
-        <v>-9.781476889548514</v>
+        <v>-9.782115898038013</v>
       </c>
       <c r="D16">
-        <v>0.616328904632617</v>
+        <v>0.601086566522012</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -780,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.350342020606044</v>
+        <v>3.352821456079552</v>
       </c>
       <c r="C17">
-        <v>3.531527501269582</v>
+        <v>3.544615275819894</v>
       </c>
       <c r="D17">
-        <v>3.294506380766194</v>
+        <v>3.283632499911958</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -797,13 +797,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.35533637264789</v>
+        <v>2.337531782042591</v>
       </c>
       <c r="C18">
-        <v>2.482306902203101</v>
+        <v>2.453926263093865</v>
       </c>
       <c r="D18">
-        <v>2.39583863601631</v>
+        <v>2.433257672330161</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -814,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.780227324931777</v>
+        <v>4.820707285507124</v>
       </c>
       <c r="C19">
-        <v>0.04644299103946683</v>
+        <v>0.06852290609688015</v>
       </c>
       <c r="D19">
-        <v>4.720467452378359</v>
+        <v>4.659380359234948</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.50500675934391</v>
+        <v>9.19357102150313</v>
       </c>
       <c r="C20">
-        <v>-9.947879034753413</v>
+        <v>-10.37077460508356</v>
       </c>
       <c r="D20">
-        <v>9.418465999486989</v>
+        <v>9.784357721836944</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -848,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.221895661334485</v>
+        <v>3.293704465851108</v>
       </c>
       <c r="C21">
-        <v>3.385595506897907</v>
+        <v>3.464415285976084</v>
       </c>
       <c r="D21">
-        <v>3.412780636231168</v>
+        <v>3.354417801319132</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.382839987141064</v>
+        <v>2.403767478341044</v>
       </c>
       <c r="C22">
-        <v>2.516904758109373</v>
+        <v>2.522197560248508</v>
       </c>
       <c r="D22">
-        <v>2.356546651622139</v>
+        <v>2.347238048587275</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.703669382567206</v>
+        <v>4.798268028050877</v>
       </c>
       <c r="C23">
-        <v>-0.04710374147479505</v>
+        <v>0.05244625419174995</v>
       </c>
       <c r="D23">
-        <v>4.774615864484713</v>
+        <v>4.722573012337754</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -899,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.368543108988396</v>
+        <v>9.134076144303851</v>
       </c>
       <c r="C24">
-        <v>-10.14379368790334</v>
+        <v>-10.36204163776603</v>
       </c>
       <c r="D24">
-        <v>9.608395176894772</v>
+        <v>9.805677223324929</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -916,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.35830250638158</v>
+        <v>3.33523861658188</v>
       </c>
       <c r="C25">
-        <v>3.540589720174105</v>
+        <v>3.508675925396576</v>
       </c>
       <c r="D25">
-        <v>3.277330715137635</v>
+        <v>3.293420760547558</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -933,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.324810211741871</v>
+        <v>2.379120471648144</v>
       </c>
       <c r="C26">
-        <v>2.451530161470207</v>
+        <v>2.504315904137616</v>
       </c>
       <c r="D26">
-        <v>2.413815975972376</v>
+        <v>2.37314325965484</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.775270845781803</v>
+        <v>4.722027295265579</v>
       </c>
       <c r="C27">
-        <v>0.04634666473460092</v>
+        <v>-0.01196851769467737</v>
       </c>
       <c r="D27">
-        <v>4.710804336063495</v>
+        <v>4.750206997915287</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -967,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.521200084890372</v>
+        <v>9.366860177666732</v>
       </c>
       <c r="C28">
-        <v>-9.980087042111206</v>
+        <v>-10.12703874595384</v>
       </c>
       <c r="D28">
-        <v>9.445938663363215</v>
+        <v>9.6075453280462</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -984,13 +984,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.429503558961892</v>
+        <v>3.321029589625642</v>
       </c>
       <c r="C29">
-        <v>3.632850671764415</v>
+        <v>3.49777568032719</v>
       </c>
       <c r="D29">
-        <v>3.21447791557393</v>
+        <v>3.346315638162769</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1001,13 +1001,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.4314387614164</v>
+        <v>2.397129718143586</v>
       </c>
       <c r="C30">
-        <v>2.549518448116266</v>
+        <v>2.529874855457902</v>
       </c>
       <c r="D30">
-        <v>2.334871408821392</v>
+        <v>2.348479061122823</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1018,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.802210032651569</v>
+        <v>4.733718232080394</v>
       </c>
       <c r="C31">
-        <v>0.05862220685239579</v>
+        <v>-0.01540335973971138</v>
       </c>
       <c r="D31">
-        <v>4.691824772973782</v>
+        <v>4.773615339188447</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1035,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.444412480902781</v>
+        <v>9.420166014310009</v>
       </c>
       <c r="C32">
-        <v>-9.995880827676526</v>
+        <v>-10.09214175624368</v>
       </c>
       <c r="D32">
-        <v>9.504308680519623</v>
+        <v>9.532141782238426</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1052,13 +1052,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.281938930464334</v>
+        <v>3.214553060945951</v>
       </c>
       <c r="C33">
-        <v>3.465587785891573</v>
+        <v>3.387037573432446</v>
       </c>
       <c r="D33">
-        <v>3.353560153342317</v>
+        <v>3.427835837723818</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.406707300859768</v>
+        <v>2.450771762696184</v>
       </c>
       <c r="C34">
-        <v>2.546314296732225</v>
+        <v>2.575986771173823</v>
       </c>
       <c r="D34">
-        <v>2.332682680314957</v>
+        <v>2.301680655599558</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1086,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.774018282792305</v>
+        <v>4.567067394442478</v>
       </c>
       <c r="C35">
-        <v>0.04812169523401207</v>
+        <v>-0.2141657648230355</v>
       </c>
       <c r="D35">
-        <v>4.719876447029429</v>
+        <v>4.939069537239706</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1103,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.517138964846497</v>
+        <v>9.336814240968291</v>
       </c>
       <c r="C36">
-        <v>-9.947477932443716</v>
+        <v>-10.1602435170412</v>
       </c>
       <c r="D36">
-        <v>9.405562828807156</v>
+        <v>9.647570473541771</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.361357183292425</v>
+        <v>3.320413121491479</v>
       </c>
       <c r="C37">
-        <v>3.545771181737177</v>
+        <v>3.514130571499491</v>
       </c>
       <c r="D37">
-        <v>3.278554935953872</v>
+        <v>3.297322093648731</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1137,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.380689407626986</v>
+        <v>2.316070363400016</v>
       </c>
       <c r="C38">
-        <v>2.50221644687265</v>
+        <v>2.43224815355738</v>
       </c>
       <c r="D38">
-        <v>2.364516604688201</v>
+        <v>2.441672603038001</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1154,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.638903060647277</v>
+        <v>4.683783439997133</v>
       </c>
       <c r="C39">
-        <v>-0.1092707740992739</v>
+        <v>-0.08145550827354343</v>
       </c>
       <c r="D39">
-        <v>4.840409995915934</v>
+        <v>4.828425628250043</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1171,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.571632130846638</v>
+        <v>9.540216310183727</v>
       </c>
       <c r="C40">
-        <v>-9.946414611423069</v>
+        <v>-9.93989812584498</v>
       </c>
       <c r="D40">
-        <v>9.434361746140839</v>
+        <v>9.44640962705339</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
